--- a/biology/Zoologie/Diptera_(classification_phylogénétique)/Diptera_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Diptera_(classification_phylogénétique)/Diptera_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Diptera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Diptera (Diptères), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Diptera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -1271,7 +1285,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Diptera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1289,7 +1303,9 @@
           <t>Débat scientifique relatif à la phylogénie des Diptera</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme montré ici suit les analyses moléculaires de Wiegmann et al. publiées en 2011, jusqu'aux familles. Les anciens taxa des Nématocères, des Aschiza, des Acalyptratae et plusieurs super-familles s'avèrent paraphylétiques.
 </t>
@@ -1302,7 +1318,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Diptera_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1322,20 +1338,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Brian M. Wiegmann, Michelle D. Trautwein, Isaac S. Winkler, Norman B. Barr, Jung-Wook Kim,Christine Lambkin, Matthew A. Bertone, Brian K. Cassel, Keith M. Bayless, Alysha M. Heimberg, Benjamin M. Wheeler, Kevin J. Peterson, Thomas Pape, Bradley J. Sinclair, Jeffrey H. Skevington, Vladimir Blagoderov, Jason Caravas, Sujatha Narayanan Kutty, Urs Schmidt-Ott, Gail E. Kampmeier, F. Christian Thompson, David A. Grimaldi, Andrew T. Beckenbach, Gregory W. Courtney, Markus Friedrich, Rudolf Meier et David K. Yeates : « Episodic radiations in the fly tree of life », P.N.A.S., vol. 108, n°21, 2011, pp.8731-8736
-David K. Yeates, Brian M. Wiegmann, Greg W. Courtney, Rudolf Meier, Christine Lambkin et Thomas Pape, « Phylogeny and systematics of Diptera: Two decades of progress and prospects », in Z.-Q. Zhang et W.A. Shear (éd.) (2007) « Linnaeus Tercentenary: Progress in Invertebrate Taxonomy », Zootaxa 1668, pp. 565-590
-Sources internet
-Assembling the Diptera Tree of Life
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Brian M. Wiegmann, Michelle D. Trautwein, Isaac S. Winkler, Norman B. Barr, Jung-Wook Kim,Christine Lambkin, Matthew A. Bertone, Brian K. Cassel, Keith M. Bayless, Alysha M. Heimberg, Benjamin M. Wheeler, Kevin J. Peterson, Thomas Pape, Bradley J. Sinclair, Jeffrey H. Skevington, Vladimir Blagoderov, Jason Caravas, Sujatha Narayanan Kutty, Urs Schmidt-Ott, Gail E. Kampmeier, F. Christian Thompson, David A. Grimaldi, Andrew T. Beckenbach, Gregory W. Courtney, Markus Friedrich, Rudolf Meier et David K. Yeates : « Episodic radiations in the fly tree of life », P.N.A.S., vol. 108, n°21, 2011, pp.8731-8736
+David K. Yeates, Brian M. Wiegmann, Greg W. Courtney, Rudolf Meier, Christine Lambkin et Thomas Pape, « Phylogeny and systematics of Diptera: Two decades of progress and prospects », in Z.-Q. Zhang et W.A. Shear (éd.) (2007) « Linnaeus Tercentenary: Progress in Invertebrate Taxonomy », Zootaxa 1668, pp. 565-590</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diptera_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Assembling the Diptera Tree of Life
 Finding the Fly Tree of Life
 The Tree of Life Web Project
 NCBI Taxonomy Browser
 The Taxonomicon
 Mikko's Phylogeny Archive
 Palaeos.org
-Micro*scope
-Liens internes
-Arbre phylogénétique
+Micro*scope</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diptera_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diptera_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Diptera
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
